--- a/dumbarton_det_files_update/oppo 2200' W of Toll Plaza 426454/2024-06-19_426454.xlsx
+++ b/dumbarton_det_files_update/oppo 2200' W of Toll Plaza 426454/2024-06-19_426454.xlsx
@@ -75945,7 +75945,7 @@
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 12:30</t>
+          <t>05/09/2025 20:34</t>
         </is>
       </c>
     </row>
